--- a/detected_layout.xlsx
+++ b/detected_layout.xlsx
@@ -452,150 +452,150 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>360.5</v>
+        <v>290.5</v>
       </c>
       <c r="C2" t="n">
-        <v>185</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>453</v>
+        <v>223</v>
       </c>
       <c r="C3" t="n">
-        <v>348.75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>435.7777777777778</v>
+        <v>340.5</v>
       </c>
       <c r="C4" t="n">
-        <v>609.6111111111111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>370.5</v>
+        <v>390.5</v>
       </c>
       <c r="C5" t="n">
-        <v>712</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>290.5</v>
+        <v>441.5</v>
       </c>
       <c r="C6" t="n">
-        <v>41.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>744.5</v>
+        <v>495.5</v>
       </c>
       <c r="C7" t="n">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>654.5</v>
+        <v>549.5</v>
       </c>
       <c r="C8" t="n">
-        <v>1087</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>600.5</v>
+        <v>605.5</v>
       </c>
       <c r="C9" t="n">
-        <v>1087</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>546.5</v>
+        <v>659.5</v>
       </c>
       <c r="C10" t="n">
-        <v>1087</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>490.5</v>
+        <v>223</v>
       </c>
       <c r="C11" t="n">
-        <v>1087</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>436.5</v>
+        <v>93.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1087</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>322</v>
+        <v>744.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1087</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>267</v>
+        <v>360.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1087</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
         <v>414.5</v>
@@ -606,549 +606,549 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>158.5</v>
+        <v>468.5</v>
       </c>
       <c r="C16" t="n">
-        <v>919.5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>582.5</v>
+        <v>525</v>
       </c>
       <c r="C17" t="n">
-        <v>411.75</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>362.5</v>
+        <v>318.5</v>
       </c>
       <c r="C18" t="n">
-        <v>947</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>527</v>
+        <v>573.5</v>
       </c>
       <c r="C19" t="n">
-        <v>947</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>390.25</v>
+        <v>309.5</v>
       </c>
       <c r="C20" t="n">
-        <v>904</v>
+        <v>257.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>419</v>
+        <v>744.5</v>
       </c>
       <c r="C21" t="n">
-        <v>947</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>223</v>
+        <v>309.5</v>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>340.5</v>
+        <v>582.5</v>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>390.5</v>
+        <v>158.5</v>
       </c>
       <c r="C24" t="n">
-        <v>42</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>441.5</v>
+        <v>453</v>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>348.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>495.5</v>
+        <v>744.5</v>
       </c>
       <c r="C26" t="n">
-        <v>42</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>549.5</v>
+        <v>582.5</v>
       </c>
       <c r="C27" t="n">
-        <v>42</v>
+        <v>411.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>605.5</v>
+        <v>309.5</v>
       </c>
       <c r="C28" t="n">
-        <v>42</v>
+        <v>432.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>659.5</v>
+        <v>582.5</v>
       </c>
       <c r="C29" t="n">
-        <v>42</v>
+        <v>436.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>223</v>
+        <v>309.5</v>
       </c>
       <c r="C30" t="n">
-        <v>79</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>93.5</v>
+        <v>582.5</v>
       </c>
       <c r="C31" t="n">
-        <v>168</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>468.5</v>
+        <v>159</v>
       </c>
       <c r="C32" t="n">
-        <v>185</v>
+        <v>507.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>525</v>
+        <v>744.5</v>
       </c>
       <c r="C33" t="n">
-        <v>185</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>318.5</v>
+        <v>309.5</v>
       </c>
       <c r="C34" t="n">
-        <v>207</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>573.5</v>
+        <v>159</v>
       </c>
       <c r="C35" t="n">
-        <v>207.5</v>
+        <v>565.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>309.5</v>
+        <v>435.7777777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>257.5</v>
+        <v>609.6111111111111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>744.5</v>
+        <v>309.5</v>
       </c>
       <c r="C37" t="n">
-        <v>293</v>
+        <v>615.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>309.5</v>
+        <v>744.5</v>
       </c>
       <c r="C38" t="n">
-        <v>315.5</v>
+        <v>647.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>582.5</v>
+        <v>309</v>
       </c>
       <c r="C39" t="n">
-        <v>319</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>158.5</v>
+        <v>582.5</v>
       </c>
       <c r="C40" t="n">
-        <v>346.5</v>
+        <v>679</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>744.5</v>
+        <v>159</v>
       </c>
       <c r="C41" t="n">
-        <v>354</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>309.5</v>
+        <v>370.5</v>
       </c>
       <c r="C42" t="n">
-        <v>432.5</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>582.5</v>
+        <v>159</v>
       </c>
       <c r="C43" t="n">
-        <v>436.5</v>
+        <v>744.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>309.5</v>
+        <v>745</v>
       </c>
       <c r="C44" t="n">
-        <v>490</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B45" t="n">
         <v>582.5</v>
       </c>
       <c r="C45" t="n">
-        <v>494</v>
+        <v>794.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>159</v>
+        <v>744.5</v>
       </c>
       <c r="C46" t="n">
-        <v>507.5</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>744.5</v>
+        <v>581.5</v>
       </c>
       <c r="C47" t="n">
-        <v>526</v>
+        <v>861</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>309.5</v>
+        <v>744.5</v>
       </c>
       <c r="C48" t="n">
-        <v>558</v>
+        <v>879.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>159</v>
+        <v>390.25</v>
       </c>
       <c r="C49" t="n">
-        <v>565.5</v>
+        <v>904</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>309.5</v>
+        <v>158.5</v>
       </c>
       <c r="C50" t="n">
-        <v>615.5</v>
+        <v>919.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>744.5</v>
+        <v>314</v>
       </c>
       <c r="C51" t="n">
-        <v>647.5</v>
+        <v>925.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>309</v>
+        <v>574.5</v>
       </c>
       <c r="C52" t="n">
-        <v>675.5</v>
+        <v>925.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>582.5</v>
+        <v>744.5</v>
       </c>
       <c r="C53" t="n">
-        <v>679</v>
+        <v>937.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>159</v>
+        <v>362.5</v>
       </c>
       <c r="C54" t="n">
-        <v>687</v>
+        <v>947</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>159</v>
+        <v>419</v>
       </c>
       <c r="C55" t="n">
-        <v>744.5</v>
+        <v>947</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>745</v>
+        <v>527</v>
       </c>
       <c r="C56" t="n">
-        <v>764.5</v>
+        <v>947</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>582.5</v>
+        <v>158.5</v>
       </c>
       <c r="C57" t="n">
-        <v>794.5</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>744.5</v>
+        <v>267</v>
       </c>
       <c r="C58" t="n">
-        <v>822</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>581.5</v>
+        <v>322</v>
       </c>
       <c r="C59" t="n">
-        <v>861</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>744.5</v>
+        <v>382.5</v>
       </c>
       <c r="C60" t="n">
-        <v>879.5</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>314</v>
+        <v>436.5</v>
       </c>
       <c r="C61" t="n">
-        <v>925.5</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>574.5</v>
+        <v>490.5</v>
       </c>
       <c r="C62" t="n">
-        <v>925.5</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>744.5</v>
+        <v>546.5</v>
       </c>
       <c r="C63" t="n">
-        <v>937.5</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>158.5</v>
+        <v>600.5</v>
       </c>
       <c r="C64" t="n">
-        <v>1036</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>382.5</v>
+        <v>654.5</v>
       </c>
       <c r="C65" t="n">
         <v>1087</v>

--- a/detected_layout.xlsx
+++ b/detected_layout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>290.5</v>
+        <v>148</v>
       </c>
       <c r="C2" t="n">
-        <v>41.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>340.5</v>
+        <v>383</v>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>390.5</v>
+        <v>462</v>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>441.5</v>
+        <v>1183</v>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>495.5</v>
+        <v>629</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>549.5</v>
+        <v>703</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>605.5</v>
+        <v>1110</v>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>659.5</v>
+        <v>875</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>223</v>
+        <v>950</v>
       </c>
       <c r="C11" t="n">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>93.5</v>
+        <v>148</v>
       </c>
       <c r="C12" t="n">
-        <v>168</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>744.5</v>
+        <v>222</v>
       </c>
       <c r="C13" t="n">
-        <v>178</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>360.5</v>
+        <v>462</v>
       </c>
       <c r="C14" t="n">
-        <v>185</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>414.5</v>
+        <v>1110</v>
       </c>
       <c r="C15" t="n">
-        <v>185</v>
+        <v>249.5</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>468.5</v>
+        <v>1183</v>
       </c>
       <c r="C16" t="n">
-        <v>185</v>
+        <v>249.5</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="C17" t="n">
-        <v>185</v>
+        <v>251.25</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>318.5</v>
+        <v>703</v>
       </c>
       <c r="C18" t="n">
-        <v>207</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>573.5</v>
+        <v>950</v>
       </c>
       <c r="C19" t="n">
-        <v>207.5</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>309.5</v>
+        <v>875</v>
       </c>
       <c r="C20" t="n">
-        <v>257.5</v>
+        <v>261.5</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>744.5</v>
+        <v>150</v>
       </c>
       <c r="C21" t="n">
-        <v>293</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>309.5</v>
+        <v>222</v>
       </c>
       <c r="C22" t="n">
-        <v>315.5</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>582.5</v>
+        <v>383</v>
       </c>
       <c r="C23" t="n">
-        <v>319</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>158.5</v>
+        <v>462</v>
       </c>
       <c r="C24" t="n">
-        <v>346.5</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>453</v>
+        <v>1110</v>
       </c>
       <c r="C25" t="n">
-        <v>348.75</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>744.5</v>
+        <v>1183</v>
       </c>
       <c r="C26" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>582.5</v>
+        <v>629</v>
       </c>
       <c r="C27" t="n">
-        <v>411.75</v>
+        <v>362.5</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>309.5</v>
+        <v>703</v>
       </c>
       <c r="C28" t="n">
-        <v>432.5</v>
+        <v>362.5</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>582.5</v>
+        <v>875</v>
       </c>
       <c r="C29" t="n">
-        <v>436.5</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>309.5</v>
+        <v>950</v>
       </c>
       <c r="C30" t="n">
-        <v>490</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>582.5</v>
+        <v>222</v>
       </c>
       <c r="C31" t="n">
-        <v>494</v>
+        <v>468.5</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C32" t="n">
-        <v>507.5</v>
+        <v>469.5</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>744.5</v>
+        <v>383</v>
       </c>
       <c r="C33" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>309.5</v>
+        <v>462</v>
       </c>
       <c r="C34" t="n">
-        <v>558</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>159</v>
+        <v>1110</v>
       </c>
       <c r="C35" t="n">
-        <v>565.5</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>435.7777777777778</v>
+        <v>1183</v>
       </c>
       <c r="C36" t="n">
-        <v>609.6111111111111</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>309.5</v>
+        <v>629</v>
       </c>
       <c r="C37" t="n">
-        <v>615.5</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>744.5</v>
+        <v>703</v>
       </c>
       <c r="C38" t="n">
-        <v>647.5</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="C39" t="n">
-        <v>675.5</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>582.5</v>
+        <v>950</v>
       </c>
       <c r="C40" t="n">
-        <v>679</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>159</v>
+        <v>383</v>
       </c>
       <c r="C41" t="n">
-        <v>687</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>370.5</v>
+        <v>462</v>
       </c>
       <c r="C42" t="n">
-        <v>712</v>
+        <v>590</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>159</v>
+        <v>1110</v>
       </c>
       <c r="C43" t="n">
-        <v>744.5</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>745</v>
+        <v>1183</v>
       </c>
       <c r="C44" t="n">
-        <v>764.5</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>582.5</v>
+        <v>150</v>
       </c>
       <c r="C45" t="n">
-        <v>794.5</v>
+        <v>591.5</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>744.5</v>
+        <v>222</v>
       </c>
       <c r="C46" t="n">
-        <v>822</v>
+        <v>592.5</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>581.5</v>
+        <v>875</v>
       </c>
       <c r="C47" t="n">
-        <v>861</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>744.5</v>
+        <v>629</v>
       </c>
       <c r="C48" t="n">
-        <v>879.5</v>
+        <v>594.5</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>390.25</v>
+        <v>703</v>
       </c>
       <c r="C49" t="n">
-        <v>904</v>
+        <v>594.5</v>
       </c>
     </row>
     <row r="50">
@@ -983,175 +983,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>158.5</v>
+        <v>950</v>
       </c>
       <c r="C50" t="n">
-        <v>919.5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="n">
-        <v>314</v>
-      </c>
-      <c r="C51" t="n">
-        <v>925.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>574.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>925.5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>744.5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>937.5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>362.5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>419</v>
-      </c>
-      <c r="C55" t="n">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>527</v>
-      </c>
-      <c r="C56" t="n">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>267</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>322</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>382.5</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>436.5</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>490.5</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>546.5</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>600.5</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>654.5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1087</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
